--- a/example folder/20230 中文 810-0019.xlsx
+++ b/example folder/20230 中文 810-0019.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Relative Path</t>
   </si>
@@ -40,12 +40,18 @@
     <t/>
   </si>
   <si>
+    <t>a b c/input.au3</t>
+  </si>
+  <si>
     <t>input.au3</t>
   </si>
   <si>
     <t>.au3</t>
   </si>
   <si>
+    <t>a b c/input.ico</t>
+  </si>
+  <si>
     <t>input.ico</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t>image/vnd.microsoft.icon</t>
+  </si>
+  <si>
+    <t>a b c/input.png</t>
   </si>
   <si>
     <t>input.png</t>
@@ -180,10 +189,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -200,16 +209,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.016172409057617188</v>
@@ -223,16 +232,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.010334014892578125</v>
@@ -246,16 +255,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.05617237091064453</v>
@@ -269,16 +278,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.7829017639160156</v>
